--- a/myproject/boston_targets.xlsx
+++ b/myproject/boston_targets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://elektaonline-my.sharepoint.com/personal/erik_lagerstroem_elekta_com/Documents/Desktop/git-repo/ExcelPython/myproject/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://elektaonline-my.sharepoint.com/personal/erik_lagerstroem_elekta_com/Documents/Desktop/git-repo/ML-addin-excel/myproject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_087577A48780DE1C9F1B3F11595ED87656CD7E04" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{55A68816-8A3F-4729-8AF7-F42774AEFB56}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_087577A48780DE1C9F1B3F11595ED87656CD7E04" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9FEC98A1-D5FD-41BF-B271-F46E77021188}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -965,9 +965,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:A506"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
